--- a/UserStoryTask2.xlsx
+++ b/UserStoryTask2.xlsx
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>User story ID</t>
   </si>
   <si>
-    <t xml:space="preserve">пользователь, который регистрируется </t>
-  </si>
-  <si>
-    <t>иметь возможность регистрации с помощью Facebook</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -114,9 +108,6 @@
     </r>
   </si>
   <si>
-    <t>мне не нужно будет заполнять поля First name, Last name, Email, Password самостоятельно, а информация будет взята автоматически из моего профиля в Facebook.</t>
-  </si>
-  <si>
     <t xml:space="preserve">пользователь, который авторизируется </t>
   </si>
   <si>
@@ -147,34 +138,25 @@
     <t>пользователь, который выбрал товар</t>
   </si>
   <si>
-    <t>Иметь возможность добавить товар в Wishlist</t>
-  </si>
-  <si>
     <t>покупатель сможет выбрать и "отложить" товар который ему нужен или интересен в будущем, но на данный момент не готов купить. Таким образом покупатель не "потеряет" то что выбрал и сможет следить за наличием данного товара.</t>
   </si>
   <si>
-    <t>пользователь, который совершил покупку</t>
-  </si>
-  <si>
-    <t>иметь возможность отменить заказ, который уже оформлен и оплачен через "Историю заказов", до того как товар будет отправлен</t>
-  </si>
-  <si>
-    <t>покупатель, который "резко" передумал, сможет сразу отменить заказ и не приносить дополнительные убытки себе и магазину.</t>
-  </si>
-  <si>
-    <t>пользователь, который добавил товар в Wishlist</t>
-  </si>
-  <si>
-    <t>иметь возможность переместить товар из Wishlist'a в Корзину и обратно.</t>
-  </si>
-  <si>
-    <t>покупатель сможет не "терять" понравившийся товар, если передумал его добавлять в текущий заказ.</t>
-  </si>
-  <si>
     <t>чтобы пункт Header меню под названием "415.261.0675" назывался - "Contact us".</t>
   </si>
   <si>
     <t xml:space="preserve">покупатель сможет быстрее решить свой вопрос напрямую связавшись с магазином и решить проблему. Покупателю будет понятнее как это сделать так как он увидит то, что он ищет в названии.  </t>
+  </si>
+  <si>
+    <t>пользователь, который выбирает товар</t>
+  </si>
+  <si>
+    <t>иметь возможность увидеть оценку товара в каталоге (как на главной странице так и в катологе продуктов) рядом с названием товара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иметь возможность добавить товар в Wishlist </t>
+  </si>
+  <si>
+    <t>я смогу получить информацию о  качестве товара, по оценке других покупателей</t>
   </si>
 </sst>
 </file>
@@ -275,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -288,9 +270,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -584,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,18 +577,18 @@
     <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="78" x14ac:dyDescent="0.3">
@@ -617,13 +596,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.3">
@@ -631,13 +610,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="78" x14ac:dyDescent="0.3">
@@ -645,83 +624,55 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
